--- a/data/database/Power_BusInfo.xlsx
+++ b/data/database/Power_BusInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C9BE80-84E8-41D1-AD13-1CC9B981AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4EF41E-64ED-4D68-857E-3E8866462644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarioA" sheetId="111" r:id="rId1"/>
@@ -472,9 +472,6 @@
     <t>Format:</t>
   </si>
   <si>
-    <t>v0.0.1</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>Node_delete</t>
+  </si>
+  <si>
+    <t>v0.0.2</t>
   </si>
 </sst>
 </file>
@@ -785,9 +785,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,6 +796,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1130,7 +1130,12 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1150,12 +1155,12 @@
         <v>71</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>79</v>
+      <c r="A3" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>18</v>
@@ -1401,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>63</v>
@@ -1411,7 +1416,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
         <v>4</v>
@@ -1428,13 +1433,13 @@
       <c r="G8" s="12">
         <v>0.9</v>
       </c>
-      <c r="H8" s="28">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
         <v>0.95</v>
       </c>
       <c r="K8" s="22">
@@ -1443,24 +1448,24 @@
       <c r="L8" s="22">
         <v>2029</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="28">
         <v>47.272599999999997</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="28">
         <v>11.471399999999999</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
         <v>5</v>
@@ -1477,13 +1482,13 @@
       <c r="G9" s="12">
         <v>0.9</v>
       </c>
-      <c r="H9" s="28">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28">
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
         <v>0.95</v>
       </c>
       <c r="K9" s="22">
@@ -1492,26 +1497,26 @@
       <c r="L9" s="22">
         <v>2029</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="28">
         <v>47.233400000000003</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <v>11.898199999999999</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="Q9" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="23"/>
       <c r="C10" s="24" t="s">
         <v>6</v>
@@ -1528,13 +1533,13 @@
       <c r="G10" s="12">
         <v>0.9</v>
       </c>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
         <v>0.95</v>
       </c>
       <c r="K10" s="22">
@@ -1543,26 +1548,26 @@
       <c r="L10" s="22">
         <v>2050</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <v>48.357199999999999</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <v>16.379300000000001</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
         <v>7</v>
@@ -1579,13 +1584,13 @@
       <c r="G11" s="12">
         <v>0.9</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="28">
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
         <v>0.95</v>
       </c>
       <c r="K11" s="22">
@@ -1594,24 +1599,24 @@
       <c r="L11" s="22">
         <v>2050</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="28">
         <v>48.181387999999998</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="28">
         <v>16.433888</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q11" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
         <v>8</v>
@@ -1628,13 +1633,13 @@
       <c r="G12" s="12">
         <v>0.9</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="28">
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
         <v>0.95</v>
       </c>
       <c r="K12" s="22">
@@ -1643,24 +1648,24 @@
       <c r="L12" s="22">
         <v>2050</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="28">
         <v>48.122599999999998</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="28">
         <v>16.420000000000002</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24" t="s">
         <v>9</v>
@@ -1677,13 +1682,13 @@
       <c r="G13" s="12">
         <v>0.9</v>
       </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28">
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
         <v>0.95</v>
       </c>
       <c r="K13" s="22">
@@ -1692,24 +1697,24 @@
       <c r="L13" s="22">
         <v>2050</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="28">
         <v>48.032055</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="28">
         <v>16.695450999999998</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q13" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24" t="s">
         <v>10</v>
@@ -1726,13 +1731,13 @@
       <c r="G14" s="12">
         <v>0.9</v>
       </c>
-      <c r="H14" s="28">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28">
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
         <v>0.95</v>
       </c>
       <c r="K14" s="22">
@@ -1741,24 +1746,24 @@
       <c r="L14" s="22">
         <v>2050</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="28">
         <v>48.25749897</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="28">
         <v>16.390085429999999</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
         <v>11</v>
@@ -1775,13 +1780,13 @@
       <c r="G15" s="12">
         <v>0.9</v>
       </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
-        <v>0</v>
-      </c>
-      <c r="J15" s="28">
+      <c r="H15" s="27">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
         <v>0.95</v>
       </c>
       <c r="K15" s="22">
@@ -1790,24 +1795,24 @@
       <c r="L15" s="22">
         <v>2050</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <v>48.224722</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="28">
         <v>15.689166</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q15" s="24" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="23"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
@@ -1824,13 +1829,13 @@
       <c r="G16" s="12">
         <v>0.9</v>
       </c>
-      <c r="H16" s="28">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="28">
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
         <v>0.95</v>
       </c>
       <c r="K16" s="22">
@@ -1839,31 +1844,31 @@
       <c r="L16" s="22">
         <v>2050</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="28">
         <v>48.1464</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="28">
         <v>15.05</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>73</v>
+      <c r="A17" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>56</v>
@@ -1877,13 +1882,13 @@
       <c r="G17" s="12">
         <v>0.9</v>
       </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="28">
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
         <v>0.95</v>
       </c>
       <c r="K17" s="22">
@@ -1892,20 +1897,20 @@
       <c r="L17" s="22">
         <v>2050</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="28">
         <v>48.032055</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="28">
         <v>16.695450999999998</v>
       </c>
       <c r="O17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="26" t="s">
+      <c r="Q17" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1927,12 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1942,12 +1952,12 @@
         <v>71</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>79</v>
+      <c r="A3" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>18</v>
@@ -2193,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>63</v>
@@ -2203,7 +2213,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
         <v>4</v>
@@ -2220,13 +2230,13 @@
       <c r="G8" s="12">
         <v>0.9</v>
       </c>
-      <c r="H8" s="28">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
         <v>0.95</v>
       </c>
       <c r="K8" s="22">
@@ -2235,24 +2245,24 @@
       <c r="L8" s="22">
         <v>2029</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="28">
         <v>47.272599999999997</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="28">
         <v>11.471399999999999</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
         <v>5</v>
@@ -2269,13 +2279,13 @@
       <c r="G9" s="12">
         <v>0.9</v>
       </c>
-      <c r="H9" s="28">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28">
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
         <v>0.95</v>
       </c>
       <c r="K9" s="22">
@@ -2284,26 +2294,26 @@
       <c r="L9" s="22">
         <v>2029</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="28">
         <v>47.233400000000003</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <v>11.898199999999999</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="23"/>
       <c r="C10" s="24" t="s">
         <v>6</v>
@@ -2320,13 +2330,13 @@
       <c r="G10" s="12">
         <v>0.9</v>
       </c>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
         <v>0.95</v>
       </c>
       <c r="K10" s="22">
@@ -2335,26 +2345,26 @@
       <c r="L10" s="22">
         <v>2035</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <v>48.357199999999999</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <v>16.379300000000001</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
         <v>7</v>
@@ -2371,13 +2381,13 @@
       <c r="G11" s="12">
         <v>0.9</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="28">
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
         <v>0.95</v>
       </c>
       <c r="K11" s="22">
@@ -2386,24 +2396,24 @@
       <c r="L11" s="22">
         <v>2035</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="28">
         <v>48.181387999999998</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="28">
         <v>16.433888</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>78</v>
+      <c r="Q11" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
         <v>8</v>
@@ -2420,13 +2430,13 @@
       <c r="G12" s="12">
         <v>0.9</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="28">
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
         <v>0.95</v>
       </c>
       <c r="K12" s="22">
@@ -2435,24 +2445,24 @@
       <c r="L12" s="22">
         <v>2035</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="28">
         <v>48.122599999999998</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="28">
         <v>16.420000000000002</v>
       </c>
       <c r="O12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="Q12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24" t="s">
         <v>9</v>
@@ -2469,13 +2479,13 @@
       <c r="G13" s="12">
         <v>0.9</v>
       </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28">
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
         <v>0.95</v>
       </c>
       <c r="K13" s="22">
@@ -2484,24 +2494,24 @@
       <c r="L13" s="22">
         <v>2035</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="28">
         <v>48.032055</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="28">
         <v>16.695450999999998</v>
       </c>
       <c r="O13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="Q13" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q13" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24" t="s">
         <v>10</v>
@@ -2518,13 +2528,13 @@
       <c r="G14" s="12">
         <v>0.9</v>
       </c>
-      <c r="H14" s="28">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28">
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
         <v>0.95</v>
       </c>
       <c r="K14" s="22">
@@ -2533,24 +2543,24 @@
       <c r="L14" s="22">
         <v>2035</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="28">
         <v>48.25749897</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="28">
         <v>16.390085429999999</v>
       </c>
       <c r="O14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="Q14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="26" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
         <v>11</v>
@@ -2567,13 +2577,13 @@
       <c r="G15" s="12">
         <v>0.9</v>
       </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
-        <v>0</v>
-      </c>
-      <c r="J15" s="28">
+      <c r="H15" s="27">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
         <v>0.95</v>
       </c>
       <c r="K15" s="22">
@@ -2582,24 +2592,24 @@
       <c r="L15" s="22">
         <v>2035</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <v>48.224722</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="28">
         <v>15.689166</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q15" s="24" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="23"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
@@ -2616,13 +2626,13 @@
       <c r="G16" s="12">
         <v>0.9</v>
       </c>
-      <c r="H16" s="28">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="28">
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
         <v>0.95</v>
       </c>
       <c r="K16" s="22">
@@ -2631,31 +2641,31 @@
       <c r="L16" s="22">
         <v>2035</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="28">
         <v>48.1464</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="28">
         <v>15.05</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>73</v>
+      <c r="A17" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>56</v>
@@ -2669,13 +2679,13 @@
       <c r="G17" s="12">
         <v>0.9</v>
       </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="28">
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
         <v>0.95</v>
       </c>
       <c r="K17" s="22">
@@ -2684,20 +2694,20 @@
       <c r="L17" s="22">
         <v>2035</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="28">
         <v>48.032055</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="28">
         <v>16.695450999999998</v>
       </c>
       <c r="O17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="26" t="s">
+      <c r="Q17" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2717,12 +2727,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2868,6 +2872,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -2877,22 +2887,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2908,4 +2902,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/database/Power_BusInfo.xlsx
+++ b/data/database/Power_BusInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4EF41E-64ED-4D68-857E-3E8866462644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14710580-4B2A-4571-8F81-9D1D05EDE3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="81">
   <si>
     <t>[p.u.]</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Minimum voltage (in % of base voltage)</t>
   </si>
   <si>
-    <t>[%]</t>
-  </si>
-  <si>
     <t>pBusB</t>
   </si>
   <si>
@@ -406,12 +403,6 @@
     <t>decomYear</t>
   </si>
   <si>
-    <t>Year where node is decommissioned (31.12.xxxx)</t>
-  </si>
-  <si>
-    <t>Year where node is commissioned (1.1.xxxx)</t>
-  </si>
-  <si>
     <t>[db-key]</t>
   </si>
   <si>
@@ -442,9 +433,6 @@
     <t>dataPackage</t>
   </si>
   <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>[DataPackage]</t>
   </si>
   <si>
@@ -500,6 +488,15 @@
   </si>
   <si>
     <t>v0.0.2</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
+  </si>
+  <si>
+    <t>Year where it is commissioned (1.1.xxxx)</t>
+  </si>
+  <si>
+    <t>Year where it is decommissioned (31.12.xxxx)</t>
   </si>
 </sst>
 </file>
@@ -1152,15 +1149,15 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>18</v>
@@ -1187,28 +1184,28 @@
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1232,34 +1229,34 @@
         <v>25</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -1283,106 +1280,106 @@
         <v>34</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="O5" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>0</v>
@@ -1406,13 +1403,13 @@
         <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1422,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12">
         <v>220</v>
@@ -1455,13 +1452,13 @@
         <v>11.471399999999999</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="12">
         <v>220</v>
@@ -1504,13 +1501,13 @@
         <v>11.898199999999999</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1522,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="12">
         <v>220</v>
@@ -1555,13 +1552,13 @@
         <v>16.379300000000001</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1573,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="12">
         <v>220</v>
@@ -1606,13 +1603,13 @@
         <v>16.433888</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1622,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="12">
         <v>220</v>
@@ -1655,13 +1652,13 @@
         <v>16.420000000000002</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1671,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="12">
         <v>220</v>
@@ -1704,13 +1701,13 @@
         <v>16.695450999999998</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1720,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="12">
         <v>220</v>
@@ -1753,13 +1750,13 @@
         <v>16.390085429999999</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1769,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="12">
         <v>220</v>
@@ -1802,13 +1799,13 @@
         <v>15.689166</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1818,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12">
         <v>220</v>
@@ -1851,27 +1848,27 @@
         <v>15.05</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="12">
         <v>220</v>
@@ -1904,13 +1901,13 @@
         <v>16.695450999999998</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1929,8 +1926,8 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1949,15 +1946,15 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>18</v>
@@ -1984,28 +1981,28 @@
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2029,34 +2026,34 @@
         <v>25</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -2080,106 +2077,106 @@
         <v>34</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="O5" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>0</v>
@@ -2203,13 +2200,13 @@
         <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2219,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12">
         <v>220</v>
@@ -2252,13 +2249,13 @@
         <v>11.471399999999999</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="12">
         <v>220</v>
@@ -2301,13 +2298,13 @@
         <v>11.898199999999999</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -2319,7 +2316,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="12">
         <v>220</v>
@@ -2352,13 +2349,13 @@
         <v>16.379300000000001</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2370,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="12">
         <v>220</v>
@@ -2403,13 +2400,13 @@
         <v>16.433888</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2419,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="12">
         <v>220</v>
@@ -2452,13 +2449,13 @@
         <v>16.420000000000002</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2468,7 +2465,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="12">
         <v>220</v>
@@ -2501,13 +2498,13 @@
         <v>16.695450999999998</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2517,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="12">
         <v>220</v>
@@ -2550,13 +2547,13 @@
         <v>16.390085429999999</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2566,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="12">
         <v>220</v>
@@ -2599,13 +2596,13 @@
         <v>15.689166</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2615,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12">
         <v>220</v>
@@ -2648,27 +2645,27 @@
         <v>15.05</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="12">
         <v>220</v>
@@ -2701,13 +2698,13 @@
         <v>16.695450999999998</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2718,12 +2715,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2873,15 +2867,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2905,17 +2910,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>